--- a/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
+++ b/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
@@ -14,30 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
   <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>N_Identificação</t>
+  </si>
+  <si>
+    <t>Data_de_Validade</t>
+  </si>
+  <si>
+    <t>Estado_Civil</t>
+  </si>
+  <si>
     <t>NIF</t>
   </si>
   <si>
-    <t>Morada</t>
-  </si>
-  <si>
-    <t>Codigo-Postal</t>
-  </si>
-  <si>
-    <t>Gilberto Pontes</t>
-  </si>
-  <si>
-    <t>302276424</t>
-  </si>
-  <si>
-    <t>Av.Herós de Ultramar n35 2Dt</t>
-  </si>
-  <si>
-    <t>700-161</t>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Codigo_Postal</t>
+  </si>
+  <si>
+    <t>Data_de_Nasc</t>
+  </si>
+  <si>
+    <t>País_de_Nasc</t>
+  </si>
+  <si>
+    <t>Telemóvel</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Fredson Vila Nova</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>030696</t>
+  </si>
+  <si>
+    <t>21-09-2027</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>308806662</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Évora</t>
+  </si>
+  <si>
+    <t>Av.Heróis de Utramar</t>
+  </si>
+  <si>
+    <t>7005-161</t>
+  </si>
+  <si>
+    <t>14-09-2000</t>
+  </si>
+  <si>
+    <t>São Tomé</t>
+  </si>
+  <si>
+    <t>926738723</t>
+  </si>
+  <si>
+    <t>fredsonpires15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,19 +489,97 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
+++ b/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Nome</t>
   </si>
@@ -70,27 +70,18 @@
     <t>Fredson Vila Nova</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>030696</t>
-  </si>
-  <si>
     <t>21-09-2027</t>
   </si>
   <si>
     <t>Solteiro</t>
   </si>
   <si>
-    <t>308806662</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -109,17 +100,51 @@
     <t>São Tomé</t>
   </si>
   <si>
-    <t>926738723</t>
-  </si>
-  <si>
     <t>fredsonpires15@gmail.com</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T.R</t>
+  </si>
+  <si>
+    <t>Q08J5243</t>
+  </si>
+  <si>
+    <t>03-04-2027</t>
+  </si>
+  <si>
+    <t>Solteira</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Av.Coelho da Mata</t>
+  </si>
+  <si>
+    <t>2703-718</t>
+  </si>
+  <si>
+    <t>18-03-2002</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Ana12@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,10 +155,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,34 +184,67 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -190,10 +253,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -231,69 +294,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -317,54 +382,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +438,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -392,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,10 +464,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,7 +496,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -445,13 +509,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -469,18 +532,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -489,7 +574,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -498,7 +583,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -519,67 +604,120 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4">
+        <v>30696</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="4">
+        <v>308806662</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="4">
+        <v>926738723</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q2">
-        <v>2500</v>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5">
+        <v>38005960</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="5">
+        <v>928728783</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
+++ b/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -70,81 +70,122 @@
     <t>Fredson Vila Nova</t>
   </si>
   <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>teyoe</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>PC</t>
   </si>
   <si>
+    <t>T.R</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Q08J5243</t>
+  </si>
+  <si>
+    <t>23302</t>
+  </si>
+  <si>
     <t>21-09-2027</t>
   </si>
   <si>
+    <t>03-04-2027</t>
+  </si>
+  <si>
+    <t>10-10-2223</t>
+  </si>
+  <si>
     <t>Solteiro</t>
   </si>
   <si>
+    <t>Solteira</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>300888922</t>
+  </si>
+  <si>
     <t>Portugal</t>
   </si>
   <si>
+    <t>STP</t>
+  </si>
+  <si>
     <t>Évora</t>
   </si>
   <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
     <t>Av.Heróis de Utramar</t>
   </si>
   <si>
+    <t>Av.Coelho da Mata</t>
+  </si>
+  <si>
+    <t>AV,rua 12</t>
+  </si>
+  <si>
     <t>7005-161</t>
   </si>
   <si>
+    <t>2703-718</t>
+  </si>
+  <si>
+    <t>2000-21</t>
+  </si>
+  <si>
     <t>14-09-2000</t>
   </si>
   <si>
+    <t>18-03-2002</t>
+  </si>
+  <si>
+    <t>14-9112</t>
+  </si>
+  <si>
     <t>São Tomé</t>
   </si>
   <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>928782738</t>
+  </si>
+  <si>
     <t>fredsonpires15@gmail.com</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>T.R</t>
-  </si>
-  <si>
-    <t>Q08J5243</t>
-  </si>
-  <si>
-    <t>03-04-2027</t>
-  </si>
-  <si>
-    <t>Solteira</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Av.Coelho da Mata</t>
-  </si>
-  <si>
-    <t>2703-718</t>
-  </si>
-  <si>
-    <t>18-03-2002</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t>Ana12@gmail.com</t>
+  </si>
+  <si>
+    <t>fre@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,15 +196,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,67 +220,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -253,10 +256,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -294,71 +297,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,53 +383,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -438,7 +440,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -447,7 +449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -456,7 +458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -464,10 +466,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -496,7 +498,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -509,12 +511,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -532,40 +535,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -574,7 +555,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -583,7 +564,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -604,120 +585,173 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>30696</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>308806662</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2">
+        <v>926738723</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>38005960</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>928728783</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4">
-        <v>30696</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4">
-        <v>308806662</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4">
-        <v>926738723</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5">
-        <v>38005960</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="5">
-        <v>928728783</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1000</v>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
+++ b/projetos_com_python/Banking_System/Banco_de_Dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Nome</t>
   </si>
@@ -76,7 +76,10 @@
     <t>teyoe</t>
   </si>
   <si>
-    <t>34</t>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>M</t>
@@ -100,6 +103,9 @@
     <t>23302</t>
   </si>
   <si>
+    <t>131989</t>
+  </si>
+  <si>
     <t>21-09-2027</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>10-10-2223</t>
   </si>
   <si>
+    <t>20-02-2022</t>
+  </si>
+  <si>
     <t>Solteiro</t>
   </si>
   <si>
@@ -118,7 +127,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>300888922</t>
+    <t>sol</t>
   </si>
   <si>
     <t>Portugal</t>
@@ -127,6 +136,9 @@
     <t>STP</t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
     <t>Évora</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>AV,rua 12</t>
   </si>
   <si>
+    <t>R-123</t>
+  </si>
+  <si>
     <t>7005-161</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>2000-21</t>
   </si>
   <si>
+    <t>2700-192</t>
+  </si>
+  <si>
     <t>14-09-2000</t>
   </si>
   <si>
@@ -163,13 +181,16 @@
     <t>14-9112</t>
   </si>
   <si>
+    <t>17/07/2029</t>
+  </si>
+  <si>
     <t>São Tomé</t>
   </si>
   <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>928782738</t>
+    <t>9886993</t>
   </si>
   <si>
     <t>fredsonpires15@gmail.com</t>
@@ -179,6 +200,9 @@
   </si>
   <si>
     <t>fre@gmail.com</t>
+  </si>
+  <si>
+    <t>fredy24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -536,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,46 +627,46 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>30696</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>308806662</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O2">
         <v>926738723</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q2">
         <v>2500</v>
@@ -656,46 +680,46 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>38005960</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O3">
         <v>928728783</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q3">
         <v>1000</v>
@@ -705,53 +729,103 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B4">
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>300888922</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
+      <c r="O4">
+        <v>928782738</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q4">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>308806662</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
